--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,44</t>
+          <t>0,0; 60,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 41,06</t>
+          <t>-4,01; 42,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 6,23</t>
+          <t>-34,11; 5,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; -0,55</t>
+          <t>-5,6; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 36,75</t>
+          <t>14,51; 35,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 23,27</t>
+          <t>0,89; 22,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 821,37</t>
+          <t>-4,2; 916,85</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 44,36</t>
+          <t>16,64; 46,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 21,7</t>
+          <t>7,31; 22,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 24,15</t>
+          <t>7,81; 24,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>129,15; 892,63</t>
+          <t>119,01; 900,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111,51; 884,12</t>
+          <t>109,69; 808,32</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 79,38</t>
+          <t>57,66; 80,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 50,15</t>
+          <t>30,04; 49,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 32,14</t>
+          <t>15,78; 31,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1274,78; 8293,06</t>
+          <t>1283,63; 7718,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>520,49; 2251,0</t>
+          <t>532,14; 2585,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>202,73; 1030,46</t>
+          <t>190,25; 1041,75</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,97; 85,04</t>
+          <t>73,04; 84,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,25; 82,07</t>
+          <t>69,41; 81,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,47; 79,14</t>
+          <t>65,61; 79,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>634,4; 1596,08</t>
+          <t>617,34; 1571,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>532,49; 1439,42</t>
+          <t>502,17; 1373,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>522,16; 1410,1</t>
+          <t>531,4; 1452,74</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,74; 80,7</t>
+          <t>71,76; 80,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,39; 71,32</t>
+          <t>60,98; 71,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,21; 74,84</t>
+          <t>65,22; 74,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>312,44; 518,97</t>
+          <t>311,41; 524,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>165,15; 267,05</t>
+          <t>166,23; 271,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>202,45; 308,41</t>
+          <t>196,14; 307,33</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,97; 78,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,66; 59,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,67; 57,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>802,67; 1213,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>362,89; 547,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>352,21; 517,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,5</t>
+          <t>0,0; 62,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 42,29</t>
+          <t>-4,04; 40,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 5,8</t>
+          <t>-32,6; 6,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,55</t>
+          <t>-5,39; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 35,77</t>
+          <t>14,46; 36,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 22,46</t>
+          <t>0,19; 23,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 916,85</t>
+          <t>-10,71; 812,13</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 46,4</t>
+          <t>17,63; 43,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 22,19</t>
+          <t>6,73; 21,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 24,08</t>
+          <t>7,89; 24,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>119,01; 900,15</t>
+          <t>113,82; 894,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>109,69; 808,32</t>
+          <t>105,79; 917,52</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,66; 80,31</t>
+          <t>56,55; 79,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,04; 49,45</t>
+          <t>31,14; 50,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 31,96</t>
+          <t>14,94; 31,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1283,63; 7718,87</t>
+          <t>1449,37; 7910,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>532,14; 2585,9</t>
+          <t>546,37; 2784,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>190,25; 1041,75</t>
+          <t>193,55; 959,51</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,04; 84,91</t>
+          <t>72,67; 84,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,41; 81,59</t>
+          <t>69,79; 82,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,61; 79,07</t>
+          <t>64,34; 78,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>617,34; 1571,88</t>
+          <t>615,21; 1555,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>502,17; 1373,45</t>
+          <t>541,54; 1478,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>531,4; 1452,74</t>
+          <t>504,3; 1385,12</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,76; 80,91</t>
+          <t>71,86; 80,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,98; 71,47</t>
+          <t>60,51; 71,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,22; 74,89</t>
+          <t>65,5; 75,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>311,41; 524,77</t>
+          <t>313,48; 513,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>166,23; 271,34</t>
+          <t>165,35; 265,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>196,14; 307,33</t>
+          <t>201,72; 320,48</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,97; 78,52</t>
+          <t>72,08; 78,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,28</t>
+          <t>51,9; 59,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,67; 57,42</t>
+          <t>50,12; 57,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>802,67; 1213,96</t>
+          <t>824,22; 1234,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>362,89; 547,35</t>
+          <t>363,99; 547,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>352,21; 517,05</t>
+          <t>359,19; 527,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,78</t>
+          <t>0,0; 52,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 40,16</t>
+          <t>-4,11; 41,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 6,8</t>
+          <t>-30,55; 6,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,55</t>
+          <t>-6,1; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 36,02</t>
+          <t>14,96; 36,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 23,07</t>
+          <t>1,48; 23,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 812,13</t>
+          <t>-1,69; 821,37</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 43,41</t>
+          <t>17,62; 44,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 21,72</t>
+          <t>7,25; 21,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 24,24</t>
+          <t>7,84; 24,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>113,82; 894,11</t>
+          <t>129,15; 892,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>105,79; 917,52</t>
+          <t>111,51; 884,12</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,55; 79,14</t>
+          <t>56,85; 79,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 50,35</t>
+          <t>30,52; 50,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 31,39</t>
+          <t>15,32; 32,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1449,37; 7910,26</t>
+          <t>1274,78; 8293,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>546,37; 2784,59</t>
+          <t>520,49; 2251,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>193,55; 959,51</t>
+          <t>202,73; 1030,46</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,67; 84,81</t>
+          <t>72,97; 85,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,79; 82,28</t>
+          <t>69,25; 82,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,34; 78,98</t>
+          <t>64,47; 79,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>615,21; 1555,02</t>
+          <t>634,4; 1596,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>541,54; 1478,53</t>
+          <t>532,49; 1439,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>504,3; 1385,12</t>
+          <t>522,16; 1410,1</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,86; 80,69</t>
+          <t>71,74; 80,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,51; 71,08</t>
+          <t>60,39; 71,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,5; 75,19</t>
+          <t>66,21; 74,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>313,48; 513,93</t>
+          <t>312,44; 518,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>165,35; 265,15</t>
+          <t>165,15; 267,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>201,72; 320,48</t>
+          <t>202,45; 308,41</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,6</t>
+          <t>71,72; 78,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,9; 59,64</t>
+          <t>51,66; 59,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50,12; 57,26</t>
+          <t>50,14; 57,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>824,22; 1234,24</t>
+          <t>802,34; 1210,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>363,99; 547,79</t>
+          <t>357,72; 529,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>359,19; 527,81</t>
+          <t>352,6; 512,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>76,5</t>
+          <t>76,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>66,14</t>
+          <t>67,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>70,47</t>
+          <t>71,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>400,63%</t>
+          <t>406,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>210,12%</t>
+          <t>237,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>249,13%</t>
+          <t>259,0%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,74; 80,7</t>
+          <t>70,64; 82,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,39; 71,32</t>
+          <t>60,58; 74,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>66,21; 74,84</t>
+          <t>65,26; 77,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>312,44; 518,97</t>
+          <t>296,46; 567,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>165,15; 267,05</t>
+          <t>173,13; 331,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>202,45; 308,41</t>
+          <t>195,05; 351,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,33</t>
+          <t>75,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,53</t>
+          <t>63,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,69</t>
+          <t>68,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>995,67%</t>
+          <t>390,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>441,83%</t>
+          <t>179,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>431,14%</t>
+          <t>234,61%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>66,92; 83,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>55,8; 71,23</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61,37; 75,94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>262,44; 625,54</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>128,53; 254,29</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>171,2; 338,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75,33</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55,53</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>53,69</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>995,67%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>441,83%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>431,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>71,72; 78,43</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>51,66; 59,05</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>50,14; 57,53</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>802,34; 1210,52</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>357,72; 529,41</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>352,6; 512,46</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P74B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Edad-trans_bre.xlsx
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,44</t>
+          <t>0,0; 59,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 41,06</t>
+          <t>-3,98; 39,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 6,23</t>
+          <t>-30,47; 6,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; -0,55</t>
+          <t>-5,8; -0,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 36,75</t>
+          <t>15,29; 35,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 23,27</t>
+          <t>-0,06; 22,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 821,37</t>
+          <t>-22,65; 772,58</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 44,36</t>
+          <t>16,55; 43,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 21,7</t>
+          <t>7,66; 22,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 24,15</t>
+          <t>7,58; 24,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>129,15; 892,63</t>
+          <t>121,75; 837,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>111,51; 884,12</t>
+          <t>95,64; 888,53</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 79,38</t>
+          <t>58,62; 79,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 50,15</t>
+          <t>30,44; 49,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 32,14</t>
+          <t>15,83; 31,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1274,78; 8293,06</t>
+          <t>1441,54; 8574,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>520,49; 2251,0</t>
+          <t>501,24; 2903,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>202,73; 1030,46</t>
+          <t>214,91; 1014,9</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,97; 85,04</t>
+          <t>72,34; 84,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,25; 82,07</t>
+          <t>69,99; 81,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,47; 79,14</t>
+          <t>64,9; 79,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>634,4; 1596,08</t>
+          <t>614,08; 1527,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>532,49; 1439,42</t>
+          <t>529,0; 1401,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>522,16; 1410,1</t>
+          <t>536,96; 1406,78</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,64; 82,11</t>
+          <t>71,09; 82,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,58; 74,77</t>
+          <t>60,29; 74,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,26; 77,26</t>
+          <t>64,89; 77,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>296,46; 567,42</t>
+          <t>296,58; 567,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>173,13; 331,84</t>
+          <t>170,72; 322,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>195,05; 351,9</t>
+          <t>191,34; 343,91</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>66,92; 83,15</t>
+          <t>66,85; 82,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,8; 71,23</t>
+          <t>55,28; 71,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,37; 75,94</t>
+          <t>61,76; 75,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>262,44; 625,54</t>
+          <t>269,63; 616,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>128,53; 254,29</t>
+          <t>125,82; 252,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>171,2; 338,72</t>
+          <t>174,02; 329,71</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,72; 78,43</t>
+          <t>71,91; 78,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,05</t>
+          <t>51,29; 58,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,14; 57,53</t>
+          <t>49,88; 57,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>802,34; 1210,52</t>
+          <t>810,39; 1228,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>357,72; 529,41</t>
+          <t>366,32; 545,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>352,6; 512,46</t>
+          <t>363,85; 527,04</t>
         </is>
       </c>
     </row>
